--- a/NOTES/Konvergens FEM.xlsx
+++ b/NOTES/Konvergens FEM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dngmo\Documents\BachelorProsjekt\NOTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0B1D26-8D6F-451F-BB70-3345D06EBE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29E29A2-7995-439F-858D-5C754541D01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14A0864C-5356-4805-BA27-15F907F0B023}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{14A0864C-5356-4805-BA27-15F907F0B023}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Convergence Study Up</a:t>
+              <a:t>Convergence Study Upwards</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2894,7 +2894,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
